--- a/_xlsx设计/表检查规则.xlsx
+++ b/_xlsx设计/表检查规则.xlsx
@@ -40,10 +40,6 @@
   </si>
   <si>
     <t>ref:namespace.enum.value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用名符合编程语言命名规则</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -196,6 +192,10 @@
   </si>
   <si>
     <t>数值范围性检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用名符合编程语言命名规则,检查数据存在性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -314,27 +314,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -642,7 +642,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A20"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -651,12 +651,12 @@
     <col min="2" max="2" width="23.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -672,229 +672,220 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" thickTop="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75">
+      <c r="A9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75">
-      <c r="A9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="12" t="s">
+      <c r="D18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="12"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
     <mergeCell ref="D9:D14"/>
     <mergeCell ref="E9:E14"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="E2:E3"/>
@@ -902,6 +893,15 @@
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="E4:E8"/>
     <mergeCell ref="B9:B14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_xlsx设计/表检查规则.xlsx
+++ b/_xlsx设计/表检查规则.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>适用类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -198,12 +198,16 @@
     <t>引用名符合编程语言命名规则,检查数据存在性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>集合类型数据,不再以列为检查对象.直接以当前集合作为列来检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +250,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -301,7 +312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
@@ -323,10 +334,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -336,6 +347,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -639,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -689,9 +706,9 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
@@ -699,188 +716,206 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="15.75">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="8"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
     <mergeCell ref="D9:D14"/>
     <mergeCell ref="E9:E14"/>
     <mergeCell ref="A2:A3"/>
@@ -893,15 +928,6 @@
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="E4:E8"/>
     <mergeCell ref="B9:B14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_xlsx设计/表检查规则.xlsx
+++ b/_xlsx设计/表检查规则.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>适用类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -100,8 +100,150 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>unique</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据引用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一性检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空性检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file:dirPath[:ext]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dirPath-文件夹路径,ext-文件扩展名,此项为选填项,不填时,则每条数据内容均要填写扩展名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,3)/(1,3]/[1,3]/[1,3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用开区间闭区间的形式指定数据范围.+和-表示正负无穷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件存在性检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值范围性检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用名符合编程语言命名规则,检查数据存在性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合类型数据,不再以列为检查对象.直接以当前集合作为列来检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合字段的检查规则只应用于集合中元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Element</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dict</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>'**'表示上述检查规则</t>
+  </si>
+  <si>
+    <t>**</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key:**</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>value:**</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>notEmoty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>notEmpty-指定数据列必须填写数据.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">注:此限制对string类型中的空白符无效.  </t>
     </r>
     <r>
       <rPr>
@@ -112,11 +254,12 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">注:此限制对string类型中的空白符无效.               </t>
+      <t xml:space="preserve">             </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -126,88 +269,12 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <t>unique</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据引用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一性检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>非空性检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>file</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>file:dirPath[:ext]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>notEmoty[:trim]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dirPath-文件夹路径,ext-文件扩展名,此项为选填项,不填时,则每条数据内容均要填写扩展名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1,3)/(1,3]/[1,3]/[1,3)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用开区间闭区间的形式指定数据范围.+和-表示正负无穷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件存在性检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值范围性检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用名符合编程语言命名规则,检查数据存在性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>集合类型数据,不再以列为检查对象.直接以当前集合作为列来检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,16 +314,17 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -312,7 +380,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
@@ -336,6 +404,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -348,10 +425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -656,13 +730,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.375" style="3" customWidth="1"/>
@@ -671,9 +745,9 @@
     <col min="5" max="5" width="27.625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickTop="1" thickBot="1">
+    <row r="1" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -688,226 +762,286 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25" thickTop="1">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="E2" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>19</v>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75">
-      <c r="A9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="D9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="8" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+      <c r="D18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="B26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="11"/>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E15:E17"/>
+  <mergeCells count="24">
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="D18:D20"/>
@@ -916,6 +1050,8 @@
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="D15:D17"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="D9:D14"/>
     <mergeCell ref="E9:E14"/>
     <mergeCell ref="A2:A3"/>
@@ -928,6 +1064,8 @@
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="E4:E8"/>
     <mergeCell ref="B9:B14"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E15:E17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_xlsx设计/表检查规则.xlsx
+++ b/_xlsx设计/表检查规则.xlsx
@@ -161,10 +161,6 @@
   </si>
   <si>
     <t>数值范围性检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用名符合编程语言命名规则,检查数据存在性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -266,6 +262,33 @@
         <scheme val="minor"/>
       </rPr>
       <t>notEmpty:trim-其他类型同上,在处理string类型时,数据列中的空白字符均按未填数据处理.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>引用名符合编程语言命名规则,检查数据存在性.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:只能引用表键</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -404,17 +427,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -732,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -762,7 +785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>19</v>
       </c>
@@ -776,13 +799,13 @@
         <v>5</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
@@ -790,266 +813,258 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="B27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="D27" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="9"/>
+      <c r="B28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
-      <c r="B28" s="3" t="s">
+      <c r="D28" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="D9:D14"/>
@@ -1066,6 +1081,14 @@
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="E15:E17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
